--- a/spreadsheet/macrofree/aoai_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aoai_checklist.pt.xlsx
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Se o diagnóstico não for suficiente para você, considere usar um gateway como o Gerenciamento de API do Azure na frente do Azure OpenAI para registrar prompts de entrada e respostas de saída, quando permitido</t>
+          <t>Habilite e configure o Diagnóstico para o Serviço OpenAI do Azure. Se não for suficiente, considere usar um gateway como o Gerenciamento de API do Azure na frente do Azure OpenAI para registrar prompts de entrada e respostas de saída, quando permitido</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Melhore a latência do sistema limitando os tamanhos dos tokens, as opções de streaming</t>
+          <t>Melhore a latência do sistema limitando os tamanhos dos tokens, opções de streaming para aplicativos como chatbots ou interfaces de conversação. O streaming pode melhorar o desempenho percebido dos aplicativos OpenAI do Azure, fornecendo respostas aos usuários de maneira incremental</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-cloud-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/ai-onboarding</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Defina um limite máximo para o número de tokens por resposta do modelo. Otimize o tamanho para garantir que seja grande o suficiente para uma resposta válida</t>
+          <t>Defina um limite máximo para o número de tokens por resposta de modelo (max_tokens e o número de conclusões a serem geradas). Otimize o tamanho para garantir que seja grande o suficiente para uma resposta válida</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Confiabilidade da pesquisa de IA</t>
+          <t>Limites de vetor de pesquisa de IA</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Examine as diretrizes fornecidas sobre como configurar a pesquisa de IA para confiabilidade</t>
+          <t>Planejar e gerenciar o armazenamento de vetores do AI Search</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3930,7 +3930,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
+          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3938,7 +3938,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>71ca7da8-cfa9-462a-8594-946da97dc3a2</t>
+          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Limites de vetor de pesquisa de IA</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Planejar e gerenciar o armazenamento de vetores do AI Search</t>
+          <t>Garanta a implantação de instâncias do Azure OpenAI em seus vários ambientes, como desenvolvimento, teste e produção com suporte a lrarning e experimentação. Aplique as práticas do LLMOps para automatizar o gerenciamento do ciclo de vida de seus aplicativos GenAI</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3976,7 +3976,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -3984,7 +3984,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3995,23 +3995,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Gestão de Operações</t>
+          <t>Otimização de custos</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Modelo de Custeio</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Aplique as práticas do LLMOps para automatizar o gerenciamento do ciclo de vida de seus aplicativos GenAI</t>
+          <t>Avalie o uso de modelos de faturamento - PAYG vs PTU. Comece com o PAYG e considere a PTU quando o uso for previsível na produção, pois oferece memória e computação dedicadas, capacidade reservada e latência máxima consistente para a versão do modelo especificada</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4022,7 +4022,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4030,7 +4030,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
+          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4041,23 +4041,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Otimização de custos</t>
+          <t>Gestão de Operações</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Modelo de Custeio</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Avalie o uso de modelos de faturamento - PAYG vs PTU</t>
+          <t>Avaliar a qualidade de prompts e aplicativos ao alternar entre versões de modelo</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
+          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
+          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Avaliar a qualidade de prompts e aplicativos ao alternar entre versões de modelo</t>
+          <t>Avalie, monitore e refine seus aplicativos GenAI para recursos como fundamentação, relevância, precisão, coerência e fluência</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
+          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Avalie, monitore e refine seus aplicativos GenAI para recursos como fundamentação, relevância, precisão, coerência, fluência,</t>
+          <t>Avaliar os resultados do Azure AI Search com base em diferentes parâmetros de pesquisa</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4158,17 +4158,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
+          <t>294798b1-578b-4219-a46c-eb5443513592</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Avaliar os resultados do Azure AI Search com base em diferentes parâmetros de pesquisa</t>
+          <t>Olhe para os modelos de ajuste fino como forma de aumentar a precisão somente quando você tiver tentado outras abordagens básicas, como engenharia rápida e RAG com seus dados</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4204,13 +4200,17 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>294798b1-578b-4219-a46c-eb5443513592</t>
+          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Olhe para os modelos de ajuste fino como forma de aumentar a precisão somente quando você tiver tentado outras abordagens básicas, como engenharia rápida e RAG com seus dados</t>
+          <t>Use técnicas de engenharia rápida para melhorar a precisão das respostas do LLM</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4248,7 +4248,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4256,7 +4256,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
+          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4267,17 +4267,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Gestão de Operações</t>
+          <t>Governança e segurança</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Auditorias de segurança e testes de penetração</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use técnicas de engenharia rápida para melhorar a precisão das respostas do LLM</t>
+          <t>Equipe vermelha de seus aplicativos GenAI</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4294,7 +4294,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4302,7 +4302,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
+          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4313,17 +4313,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Governança e segurança</t>
+          <t>Gestão de Operações</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Auditorias de segurança e testes de penetração</t>
+          <t>Feedback do usuário final</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Equipe vermelha de seus aplicativos GenAI</t>
+          <t xml:space="preserve">Forneça aos usuários finais opções de pontuação para respostas LLM e acompanhe essas pontuações. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4340,7 +4340,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
+          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4348,7 +4348,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
+          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Feedback do usuário final</t>
+          <t>Afinar</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forneça aos usuários finais opções de pontuação para respostas LLM e acompanhe essas pontuações. </t>
+          <t>Siga as diretrizes para ajustar com arquivos de dados grandes e importar os dados de um repositório de blobs do Azure. Arquivos grandes, com 100 MB ou mais, podem se tornar instáveis quando carregados por meio de formulários de várias partes porque as solicitações são atômicas e não podem ser repetidas ou retomadas</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4386,7 +4386,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/fine-tuning?tabs=turbo%2Cpython-new&amp;pivots=programming-language-studio#import-training-data-from-azure-blob-store</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4405,23 +4405,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Otimização de custos</t>
+          <t>Gestão de Operações</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de cotas</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Considere as práticas de gerenciamento de cotas</t>
+          <t>Gerencie limites de taxa para suas implantações de modelo e monitore o uso de tokens por minuto (TPM) e solicitações por minuto (RPM) para implantações pagas conforme o uso</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4432,7 +4432,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/quota?tabs=rest</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4440,7 +4440,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Balanceamento de carga</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use soluções de balanceador de carga, como gateway baseado em APIM, para balancear carga e capacidade entre serviços e regiões</t>
+          <t>Monitore a utilização gerenciada por provisionamento se você estiver usando o modelo de pagamento de taxa de transferência provisionada</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4486,7 +4486,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4495,221 +4495,598 @@
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>Gerenciamento de cotas</t>
+        </is>
+      </c>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>Considere as práticas de gerenciamento de cotas. Use a cota dinâmica para determinados casos de uso quando seu aplicativo pode usar capacidade extra de forma oportunista ou o próprio aplicativo está impulsionando a taxa na qual a API OpenAI do Azure é chamada</t>
+        </is>
+      </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="n"/>
+      <c r="H84" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+        </is>
+      </c>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>IA responsável</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>Segurança de conteúdo</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Ajuste os filtros de conteúdo para minimizar falsos positivos de filtros excessivamente agressivos</t>
+        </is>
+      </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="n"/>
+      <c r="H85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/content-filters</t>
+        </is>
+      </c>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>Governança e segurança</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>Gerenciamento de chaves</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Use chaves gerenciadas pelo cliente para modelos ajustados e dados de treinamento carregados no Azure OpenAI</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="n"/>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/encrypt-data-at-rest</t>
+        </is>
+      </c>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>Governança e segurança</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>Proteção contra jailbreak</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>Implemente a detecção de risco de jailbreak para proteger suas implantações de modelo de linguagem contra ataques de injeção imediata</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="n"/>
+      <c r="H87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/content-safety/concepts/jailbreak-detection</t>
+        </is>
+      </c>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>Governança e segurança</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>Esgotamento de cotas</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>Use controles de segurança como limitação, isolamento de serviço e padrão de gateway para evitar ataques que possam esgotar as cotas de uso do modelo</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="n"/>
+      <c r="H88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
+        </is>
+      </c>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>Estimativa de custos</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>Desenvolva seu modelo de custo, considerando os tamanhos de prompt. Entender os tamanhos de entrada e resposta do prompt e como o texto se traduz em tokens ajuda a criar um modelo de custo viável</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="n"/>
+      <c r="H89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>Seleção de modelo</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>Considere os preços e os recursos do modelo ao escolher modelos. Comece com modelos menos dispendiosos para tarefas menos complexas, como geração de texto ou tarefas de conclusão, e para tarefas complexas, como tradução de idiomas ou compreensão de conteúdo, considere o uso de modelos mais avançados. Otimize os custos e, ao mesmo tempo, atinja o desempenho desejado do aplicativo</t>
+        </is>
+      </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/details/cognitive-services/openai-service/</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de uso</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Maximize os pontos de interrupção de preço do Azure OpenAI, como ajuste fino, e pontos de interrupção de modelo, como geração de imagens, a seu favor. O ajuste fino é cobrado por hora, use o tempo que tiver disponível por hora para melhorar os resultados sem passar para o próximo período de cobrança. O custo para gerar 100 imagens é o mesmo que o custo de 1 imagem</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="n"/>
+      <c r="H91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de uso</t>
+        </is>
+      </c>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Remova os modelos ajustados não utilizados quando eles não estiverem mais sendo consumidos para evitar incorrer em uma taxa de hospedagem contínua</t>
+        </is>
+      </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de token</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Crie prompts concisos que forneçam contexto suficiente para que o modelo gere uma resposta útil. Certifique-se também de otimizar o limite do comprimento da resposta.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Gestão de Operações</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>IaC</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Usar a IaC (infraestrutura como código) para implantar o Azure OpenAI, implantações de modelo e outras infraestruturas necessárias para ajustar modelos</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/create-account-bicep</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Gestão de Operações</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Balanceamento de carga</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Use soluções de balanceador de carga, como gateway baseado em APIM, para balancear carga e capacidade entre serviços e regiões</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+        </is>
+      </c>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Gestão de Operações</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>Considere o uso de implantações de modelo dedicadas por grupo de consumidores para fornecer isolamento de uso por modelo que pode ajudar a evitar vizinhos barulhentos entre seus grupos de consumidores</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/multitenant/service/openai</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>2744293b-b628-4537-a551-19b08e8f5855</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
@@ -7971,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
